--- a/data/TopOnePercent/Tianjin Normal University.xlsx
+++ b/data/TopOnePercent/Tianjin Normal University.xlsx
@@ -184,16 +184,16 @@
         </is>
       </c>
       <c r="C7" s="3" t="n">
-        <v>1129.0</v>
+        <v>1078.0</v>
       </c>
       <c r="D7" s="3" t="n">
-        <v>15055.0</v>
+        <v>14072.0</v>
       </c>
       <c r="E7" s="3" t="n">
-        <v>13.33</v>
+        <v>13.05</v>
       </c>
       <c r="F7" s="3" t="n">
-        <v>11.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="8">
@@ -206,22 +206,22 @@
         </is>
       </c>
       <c r="C8" s="3" t="n">
-        <v>3278.0</v>
+        <v>3256.0</v>
       </c>
       <c r="D8" s="3" t="n">
-        <v>34110.0</v>
+        <v>33357.0</v>
       </c>
       <c r="E8" s="3" t="n">
-        <v>10.41</v>
+        <v>10.24</v>
       </c>
       <c r="F8" s="3" t="n">
-        <v>31.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Copyright © 2019 Clarivate Analytics</t>
+          <t>Copyright © 2020 Clarivate Analytics</t>
         </is>
       </c>
     </row>
